--- a/medicine/Sexualité et sexologie/Coup_de_foudre/Coup_de_foudre.xlsx
+++ b/medicine/Sexualité et sexologie/Coup_de_foudre/Coup_de_foudre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coup de foudre est un phénomène qu'un individu peut expérimenter lors d'une rencontre subite avec une personne inconnue durant laquelle l'attirance est amplifiée par la sensation de surprise liée à la rencontre[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coup de foudre est un phénomène qu'un individu peut expérimenter lors d'une rencontre subite avec une personne inconnue durant laquelle l'attirance est amplifiée par la sensation de surprise liée à la rencontre. 
 On retrouve ce thème dans la littérature et dans de nombreux films tels que Coup de foudre à Notting Hill ou dans Le fabuleux destin d'Amélie Poulain. Dans ces films, le coup de foudre provoque habituellement une passion amoureuse incontrôlable conduisant les protagonistes à vivre d'intenses émotions autour desquelles s'articule le scénario. Ces films le présentent généralement de manière idéalisée, comme une sorte de signe motivant un engagement dans une relation amoureuse.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un événement se produisant en général lors d'une première rencontre entre deux personnes, quels que soient le sexe, l'âge, etc. Les regards croisés sont instantanément d'une intensité et d'une profondeur importante et ne peuvent/veulent se lâcher. Une émotion particulière immédiate emplit chacun des protagonistes. C'est comme un choc émotionnel. « Tout est bouleversé et plus rien ne sera comme avant !!!... »[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un événement se produisant en général lors d'une première rencontre entre deux personnes, quels que soient le sexe, l'âge, etc. Les regards croisés sont instantanément d'une intensité et d'une profondeur importante et ne peuvent/veulent se lâcher. Une émotion particulière immédiate emplit chacun des protagonistes. C'est comme un choc émotionnel. « Tout est bouleversé et plus rien ne sera comme avant !!!... »
 Le sentiment d'être déstabilisé qui en résulte donne l'impression de quelque chose d'unique et de formidable comparé à une « décharge électrique de la foudre » ou à des « papillons dans le ventre ». L'intense expérience vécue, associée à l'image donnée dans la culture moderne, peut être une motivation pour débuter une relation amoureuse.
 </t>
         </is>
@@ -544,15 +558,17 @@
           <t>Processus physiologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite d'un coup de foudre, il s'ensuit des processus biochimiques dans le cerveau et donc dans le corps[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite d'un coup de foudre, il s'ensuit des processus biochimiques dans le cerveau et donc dans le corps : 
 l'ocytocine, hormone de l'attachement, influence certains comportements d'affiliation, et augmente l'attirance et le désir...
 la dopamine stimule le désir et la motivation.
 Le circuit de la récompense est sollicité.
 L'idéalisation de la personne rencontrée est activée... 
 Cela peut se révéler être le premier terme d'une affiliation (vs charisme), d'une amitié, d'un amour...
-Il faut qu'un nombre suffisant d'expériences et de moment d'intimité soient partagés pour que le lien sentimental (exemple : amoureux) s'établisse[3]. Il faut apprendre à connaître l'autre... Une fois ce lien établi, il est nécessaire de reproduire régulièrement cette sensation, cette activation pour que le sentiment (affiliatif, amical ou amoureux) prenne de l'épaisseur.
+Il faut qu'un nombre suffisant d'expériences et de moment d'intimité soient partagés pour que le lien sentimental (exemple : amoureux) s'établisse. Il faut apprendre à connaître l'autre... Une fois ce lien établi, il est nécessaire de reproduire régulièrement cette sensation, cette activation pour que le sentiment (affiliatif, amical ou amoureux) prenne de l'épaisseur.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Arts et littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La thématique du « Coup de foudre » apparait dans Comédies Françaises, un roman-enquête d’Éric Reinhardt publié en 2020 aux Éditions Gallimard, au cours duquel l'idée de « coup de foudre » se place au cœur de deux conversations, dans deux chapitres, au début et à la fin du roman, entre le héros et sa meilleure amie.
 </t>
